--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D807350C-E0C7-47E3-B1D2-B8C450C80857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C79F1C5-E7EC-4F1D-A6C0-9CD5DAA4C19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Total Cost</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/ni/785185-01/15218920</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>https://us.store.bambulab.com/products/pla-basic-filament?id=40475107000456</t>
+  </si>
+  <si>
+    <t>PLA Basic - red</t>
   </si>
 </sst>
 </file>
@@ -775,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +877,7 @@
         <v>9.99</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E33" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E34" si="0">C3*D3</f>
         <v>9.99</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1553,25 +1562,31 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="3"/>
+      <c r="A34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="6">
-        <f>SUM(E2:E34)</f>
-        <v>12416.509999999997</v>
-      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="5"/>
     </row>
@@ -1614,6 +1629,15 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="6">
+        <f>SUM(E2:E41)</f>
+        <v>12436.499999999996</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C79F1C5-E7EC-4F1D-A6C0-9CD5DAA4C19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43803755-0E54-4E6D-8EEB-27ECF644B6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-16320" yWindow="-12765" windowWidth="16440" windowHeight="28440" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Total Cost</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Powerwerx PanelPlateSB1 for Anderson SB50 Series Connectors</t>
   </si>
   <si>
-    <t>power plut</t>
-  </si>
-  <si>
     <t>https://powerwerx.com/red-black-bonded-zip-cord</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>TEMPCO Thermocouple Wire: Type J, 20 AWG Conductor Size, 100 ft</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/TEMPCO-Thermocouple-Wire-Type-J-5ZY38</t>
-  </si>
-  <si>
     <t>Thermocouple, Type K</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t>voltage sense wire</t>
   </si>
   <si>
-    <t>Belden 35618 002500</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/molex/0191930226/1952713</t>
   </si>
   <si>
@@ -381,6 +372,36 @@
   </si>
   <si>
     <t>PLA Basic - red</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cnc-tech/10982-18-1-2000-004-1-TD/12749509</t>
+  </si>
+  <si>
+    <t>18 ga copper tinned</t>
+  </si>
+  <si>
+    <t>power plug</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/TEMPCO-Thermocouple-Wire-Type-K-3AGF3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/io-audio-technologies/IO-C14SP-63/21379594?gad_source=1&amp;gad_campaignid=22396809060&amp;gbraid=0AAAAADrbLlisC8UtMjpExL2rbCWoG3ieR&amp;gclid=Cj0KCQjw0NPGBhCDARIsAGAzpp2VLlJaqhBiZUHDGRJcszbohHTDT2yecNaX-w7lJU8lPrGXw1UWNiwaAsExEALw_wcB&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>IEC C14 SCREW ON PANEL MOUNT W</t>
+  </si>
+  <si>
+    <t>115V power plug</t>
+  </si>
+  <si>
+    <t>CONFORMAL COATING UL 94V-0</t>
+  </si>
+  <si>
+    <t>Strain Gauge Coating</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/mg-chemicals/419D-55ML/9657990</t>
   </si>
 </sst>
 </file>
@@ -786,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +886,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -877,7 +898,7 @@
         <v>9.99</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E34" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E36" si="0">C3*D3</f>
         <v>9.99</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -929,7 +950,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -954,7 +975,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -979,7 +1000,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1006,10 +1027,10 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1022,17 +1043,17 @@
         <v>90.99</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1045,17 +1066,17 @@
         <v>162.72</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1068,16 +1089,16 @@
         <v>46.16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1090,16 +1111,16 @@
         <v>14.52</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1112,15 +1133,15 @@
         <v>8.98</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -1133,7 +1154,7 @@
         <v>149.78</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1143,10 +1164,10 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -1159,16 +1180,16 @@
         <v>20.34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
@@ -1181,16 +1202,16 @@
         <v>8.4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
@@ -1203,16 +1224,16 @@
         <v>24.06</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1225,16 +1246,16 @@
         <v>15.02</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1247,16 +1268,16 @@
         <v>21.27</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1269,16 +1290,16 @@
         <v>15.13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1291,16 +1312,16 @@
         <v>29.3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1313,16 +1334,16 @@
         <v>4.09</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1335,16 +1356,16 @@
         <v>147.52000000000001</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -1357,16 +1378,16 @@
         <v>5.8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1379,16 +1400,16 @@
         <v>1.46</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1401,18 +1422,18 @@
         <v>2195</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1425,16 +1446,16 @@
         <v>99.89</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2">
         <v>10</v>
@@ -1447,16 +1468,16 @@
         <v>69.2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
@@ -1469,16 +1490,16 @@
         <v>145.5</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1491,16 +1512,18 @@
         <v>41.17</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
@@ -1513,16 +1536,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1535,17 +1558,17 @@
         <v>14.65</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -1558,15 +1581,15 @@
         <v>12.12</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1579,24 +1602,52 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>1.87</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>22.56</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>22.56</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,7 +1687,7 @@
       </c>
       <c r="E42" s="6">
         <f>SUM(E2:E41)</f>
-        <v>12436.499999999996</v>
+        <v>12460.929999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1664,21 +1715,23 @@
     <hyperlink ref="F23" r:id="rId21" xr:uid="{81E87505-E60E-4515-89EA-9361938F7388}"/>
     <hyperlink ref="F24" r:id="rId22" xr:uid="{EFDA772F-CC83-4998-A756-1FADE307C734}"/>
     <hyperlink ref="F25" r:id="rId23" xr:uid="{F81462CE-4E7C-4FAB-8A8E-D305901B6FCF}"/>
-    <hyperlink ref="F27" r:id="rId24" xr:uid="{710F7333-9D6C-454D-889C-03B3C3ED177B}"/>
-    <hyperlink ref="F28" r:id="rId25" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
-    <hyperlink ref="F29" r:id="rId26" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
-    <hyperlink ref="F30" r:id="rId27" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
-    <hyperlink ref="F32" r:id="rId29" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
-    <hyperlink ref="F11" r:id="rId30" xr:uid="{2459F536-6BF7-4F95-8ED6-65EBE68E0306}"/>
-    <hyperlink ref="F33" r:id="rId31" xr:uid="{A1AFF2B0-3BCF-4EB1-A5D8-3277D679C9A9}"/>
-    <hyperlink ref="G6" r:id="rId32" xr:uid="{A8C35020-1C53-4073-BE6C-0F6933CB1921}"/>
-    <hyperlink ref="G5" r:id="rId33" xr:uid="{A49999D0-0D24-4148-A259-6949303F3996}"/>
-    <hyperlink ref="G7" r:id="rId34" xr:uid="{D90F92BC-9947-4813-8C28-6009DA178051}"/>
-    <hyperlink ref="F26" r:id="rId35" xr:uid="{F3415021-EB69-4CB6-B212-558D2454FF2B}"/>
-    <hyperlink ref="G26" r:id="rId36" xr:uid="{E4EF5DF5-36DD-4B50-AF25-A19F9CE4857A}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
+    <hyperlink ref="F29" r:id="rId25" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
+    <hyperlink ref="F30" r:id="rId26" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
+    <hyperlink ref="F31" r:id="rId27" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
+    <hyperlink ref="F32" r:id="rId28" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
+    <hyperlink ref="F11" r:id="rId29" xr:uid="{2459F536-6BF7-4F95-8ED6-65EBE68E0306}"/>
+    <hyperlink ref="F33" r:id="rId30" xr:uid="{A1AFF2B0-3BCF-4EB1-A5D8-3277D679C9A9}"/>
+    <hyperlink ref="G6" r:id="rId31" xr:uid="{A8C35020-1C53-4073-BE6C-0F6933CB1921}"/>
+    <hyperlink ref="G5" r:id="rId32" xr:uid="{A49999D0-0D24-4148-A259-6949303F3996}"/>
+    <hyperlink ref="G7" r:id="rId33" xr:uid="{D90F92BC-9947-4813-8C28-6009DA178051}"/>
+    <hyperlink ref="F26" r:id="rId34" xr:uid="{F3415021-EB69-4CB6-B212-558D2454FF2B}"/>
+    <hyperlink ref="G26" r:id="rId35" xr:uid="{E4EF5DF5-36DD-4B50-AF25-A19F9CE4857A}"/>
+    <hyperlink ref="G30" r:id="rId36" xr:uid="{5A940B12-DD8E-47F3-8C44-FCBBD353757C}"/>
+    <hyperlink ref="F35" r:id="rId37" display="https://www.digikey.com/en/products/detail/io-audio-technologies/IO-C14SP-63/21379594?gad_source=1&amp;gad_campaignid=22396809060&amp;gbraid=0AAAAADrbLlisC8UtMjpExL2rbCWoG3ieR&amp;gclid=Cj0KCQjw0NPGBhCDARIsAGAzpp2VLlJaqhBiZUHDGRJcszbohHTDT2yecNaX-w7lJU8lPrGXw1UWNiwaAsExEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B8089ED-EC5B-48CB-8DCC-6C3B9EB37FA7}"/>
+    <hyperlink ref="F36" r:id="rId38" xr:uid="{E263962D-47C1-49F9-A559-36360176D757}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43803755-0E54-4E6D-8EEB-27ECF644B6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D88D8EA-A7DC-4D02-A64F-E1AF0B7D9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-12765" windowWidth="16440" windowHeight="28440" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -808,7 +808,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D88D8EA-A7DC-4D02-A64F-E1AF0B7D9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A91F73A-B16E-49D3-9A34-C0C5056D6F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Total Cost</t>
   </si>
@@ -191,45 +191,21 @@
     <t>https://www.digikey.com/en/products/detail/t-global-technology/TG-AH486-150-150-1-0-0/3042048</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/SPEEDAIRE-Barbed-Hose-Fitting-For-5-6AFL3?opr=ODOH&amp;analytics=FM:Order%20History</t>
-  </si>
-  <si>
     <t>SPEEDAIRE Barbed Hose Fitting: For 5/16 in Hose I.D., Hose Barb x NPT, 5/16 in x 1/4 in Fitting Size</t>
   </si>
   <si>
     <t>Barb fitting</t>
   </si>
   <si>
-    <t>panel mount barb fitting</t>
-  </si>
-  <si>
-    <t>PARKER Barbed Fitting Union: 3/8 in ID x 1/4 in ID Size, Barbed x Barbed, Brass, Bulkhead, Rigid</t>
-  </si>
-  <si>
-    <t>https://www.grainger.com/product/2GUJ7?gucid=N:N:PS:Paid:GGL:CSM-2295:6VHHZD:20500801:APZ_1&amp;gad_source=1&amp;gad_campaignid=21369464100&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19RsajGZF2w-bnZcF3epzS8M4xEHfpDZzsbYfeG9zBIcO2rvHXHFMrFFoaAoNGEALw_wcB&amp;gclsrc=aw.ds</t>
-  </si>
-  <si>
     <t>Tubing: PVC, 3/8 in Inside Dia, 1/2 in Outside Dia, 5 ft Lg, Clear, Polyester Braid</t>
   </si>
   <si>
-    <t>braded pvc tubming</t>
-  </si>
-  <si>
     <t>https://www.grainger.com/product/Tubing-PVC-742T39?gucid=N:N:PS:Paid:GGL:CSM-2295:K2UWC0:20500801:APZ_1&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=21369463827&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19RsZM3cz01djgGkrXBnkh3m7nPFZOvY62h02uQEeZVQfYnXJ_JFcZpUAaAuKSEALw_wcB</t>
   </si>
   <si>
     <t>hose clamp</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/Worm-Gear-Hose-Clamp-201-Stainless-5CYY6</t>
-  </si>
-  <si>
-    <t>Worm Gear Hose Clamp: 201 Stainless Steel, Perforated Band, 3/8 in – 7/8 in Clamping Dia, 10 PK</t>
-  </si>
-  <si>
-    <t>panel eathernet</t>
-  </si>
-  <si>
     <t>FINECABLES Connector: Cat5e/Cat6, Industrial, Panel, Female, Phosphor Bronze, IP67, Female</t>
   </si>
   <si>
@@ -278,9 +254,6 @@
     <t>Anderson Power Products 5900-BK</t>
   </si>
   <si>
-    <t>eathernet cable</t>
-  </si>
-  <si>
     <t>https://www.grainger.com/product/5PZR3?gucid=N:N:PS:Paid:GGL:CSM-2295:DDJWUR:20500801:APZ_1&amp;gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=21379885351&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19RsbdymUQqUtYnAXBF1774w4jJdCOiHtys_Y9P4gyvz2tfj_8QtqMd1gaAg0mEALw_wcB</t>
   </si>
   <si>
@@ -344,15 +317,6 @@
     <t>https://www.aliexpress.us/item/3256805148780496.html?gatewayAdapt=glo2usa4itemAdapt</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/AIGNEP-USA-Tee-Nickel-Plated-Brass-1CPF4?opr=ODOH&amp;analytics=FM:Order%20History</t>
-  </si>
-  <si>
-    <t>Tee: Nickel-Plated Brass, 1/4 in x 1/4 in x 1/4 in Fitting Pipe Size, 2 in Overall Lg</t>
-  </si>
-  <si>
-    <t>1/4 in Tee</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/ni/785996-01/15219166</t>
   </si>
   <si>
@@ -402,6 +366,51 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/mg-chemicals/419D-55ML/9657990</t>
+  </si>
+  <si>
+    <t>Ethernet cable</t>
+  </si>
+  <si>
+    <t>braded PVC tubing</t>
+  </si>
+  <si>
+    <t>panel Ethernet</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Fuel-Injection-Hose-Clamp-5CZC5</t>
+  </si>
+  <si>
+    <t>Fuel Injection Hose Clamp: Zinc-Plated Steel Band, 1/2 in – 9/16 in Dia., SAE # 6, 10 PK</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/SPEEDAIRE-Barbed-Hose-Fitting-For-3-6AFN8</t>
+  </si>
+  <si>
+    <t>tee to thermocouple reducer</t>
+  </si>
+  <si>
+    <t>3/8 in Tee</t>
+  </si>
+  <si>
+    <t>Tee: Red Brass, 3/8 in x 3/8 in x 3/8 in Fitting Pipe Size, Female NPT x Female NPT x Female NPT</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Tee-Red-Brass-1VEZ1?opr=PDPRRDSP&amp;analytics=dsrrItems_1CPF5</t>
+  </si>
+  <si>
+    <t>Hex Bushing: Brass, 3/8 in x 1/8 in Fitting Pipe Size, Male NPT x Female NPT, Class 150</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Hex-Bushing-Brass-6AYW6</t>
+  </si>
+  <si>
+    <t>Anchor Coupling: Brass, 3/8 in x 3/8 in Fitting Pipe Size, Male NPT x Female NPT</t>
+  </si>
+  <si>
+    <t>panel mount dual female mpt</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/PARKER-Anchor-Coupling-Brass-13Y869?opr=ODOH&amp;analytics=FM:Order%20History</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -469,6 +478,9 @@
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +898,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
@@ -898,7 +910,7 @@
         <v>9.99</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E36" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>9.99</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -950,7 +962,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -975,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1000,7 +1012,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1027,10 +1039,10 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1186,54 +1198,54 @@
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>14.16</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="6">
-        <v>12.03</v>
+        <v>23.66</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>24.06</v>
+        <v>47.32</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1246,38 +1258,38 @@
         <v>15.02</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="6">
-        <v>21.27</v>
+        <v>12.46</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>21.27</v>
+        <v>12.46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1290,16 +1302,16 @@
         <v>15.13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1312,16 +1324,16 @@
         <v>29.3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1334,16 +1346,16 @@
         <v>4.09</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1356,16 +1368,16 @@
         <v>147.52000000000001</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -1378,16 +1390,16 @@
         <v>5.8</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1400,16 +1412,16 @@
         <v>1.46</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1422,18 +1434,18 @@
         <v>2195</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1446,16 +1458,16 @@
         <v>99.89</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2">
         <v>10</v>
@@ -1468,16 +1480,16 @@
         <v>69.2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
@@ -1490,16 +1502,16 @@
         <v>145.5</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1512,18 +1524,18 @@
         <v>41.17</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
@@ -1536,16 +1548,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1558,38 +1570,38 @@
         <v>14.65</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
       </c>
-      <c r="D33" s="6">
-        <v>6.06</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="0"/>
-        <v>12.12</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>102</v>
+      <c r="D33" s="2">
+        <v>9.85</v>
+      </c>
+      <c r="E33" s="2">
+        <f>C33*D33</f>
+        <v>19.7</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -1602,16 +1614,16 @@
         <v>19.989999999999998</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1624,16 +1636,16 @@
         <v>1.87</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -1646,25 +1658,30 @@
         <v>22.56</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -1687,7 +1704,7 @@
       </c>
       <c r="E42" s="6">
         <f>SUM(E2:E41)</f>
-        <v>12460.929999999997</v>
+        <v>12492.919999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1705,33 +1722,32 @@
     <hyperlink ref="F13" r:id="rId11" xr:uid="{7E2805CC-0B04-4DB0-9F38-3741F75A7D1D}"/>
     <hyperlink ref="F14" r:id="rId12" xr:uid="{6AF56708-0BAB-42E8-A3AE-FD431334CF6C}"/>
     <hyperlink ref="F15" r:id="rId13" xr:uid="{F2324ACB-C085-42C4-8640-3C360A4D119E}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{A4430CD5-3F04-4F39-8FC7-418A2C196358}"/>
-    <hyperlink ref="F17" r:id="rId15" xr:uid="{9135126A-24C0-4A12-968F-F14A3B2136F6}"/>
-    <hyperlink ref="F18" r:id="rId16" xr:uid="{36F5D6E3-807C-49A7-8D30-80566D9949D4}"/>
-    <hyperlink ref="F19" r:id="rId17" xr:uid="{5DBEE37C-590D-4F51-A663-823016400D71}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{1F94BCB9-4D2C-4C92-8BF0-A4FC479E37E8}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{6624F982-B428-4251-AA28-31179DCD8937}"/>
-    <hyperlink ref="F22" r:id="rId20" xr:uid="{58E2A489-0714-4655-8748-622D874EF6F8}"/>
-    <hyperlink ref="F23" r:id="rId21" xr:uid="{81E87505-E60E-4515-89EA-9361938F7388}"/>
-    <hyperlink ref="F24" r:id="rId22" xr:uid="{EFDA772F-CC83-4998-A756-1FADE307C734}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{F81462CE-4E7C-4FAB-8A8E-D305901B6FCF}"/>
-    <hyperlink ref="F28" r:id="rId24" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
-    <hyperlink ref="F29" r:id="rId25" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
-    <hyperlink ref="F30" r:id="rId26" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
-    <hyperlink ref="F31" r:id="rId27" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
-    <hyperlink ref="F32" r:id="rId28" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
-    <hyperlink ref="F11" r:id="rId29" xr:uid="{2459F536-6BF7-4F95-8ED6-65EBE68E0306}"/>
-    <hyperlink ref="F33" r:id="rId30" xr:uid="{A1AFF2B0-3BCF-4EB1-A5D8-3277D679C9A9}"/>
-    <hyperlink ref="G6" r:id="rId31" xr:uid="{A8C35020-1C53-4073-BE6C-0F6933CB1921}"/>
-    <hyperlink ref="G5" r:id="rId32" xr:uid="{A49999D0-0D24-4148-A259-6949303F3996}"/>
-    <hyperlink ref="G7" r:id="rId33" xr:uid="{D90F92BC-9947-4813-8C28-6009DA178051}"/>
-    <hyperlink ref="F26" r:id="rId34" xr:uid="{F3415021-EB69-4CB6-B212-558D2454FF2B}"/>
-    <hyperlink ref="G26" r:id="rId35" xr:uid="{E4EF5DF5-36DD-4B50-AF25-A19F9CE4857A}"/>
-    <hyperlink ref="G30" r:id="rId36" xr:uid="{5A940B12-DD8E-47F3-8C44-FCBBD353757C}"/>
-    <hyperlink ref="F35" r:id="rId37" display="https://www.digikey.com/en/products/detail/io-audio-technologies/IO-C14SP-63/21379594?gad_source=1&amp;gad_campaignid=22396809060&amp;gbraid=0AAAAADrbLlisC8UtMjpExL2rbCWoG3ieR&amp;gclid=Cj0KCQjw0NPGBhCDARIsAGAzpp2VLlJaqhBiZUHDGRJcszbohHTDT2yecNaX-w7lJU8lPrGXw1UWNiwaAsExEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B8089ED-EC5B-48CB-8DCC-6C3B9EB37FA7}"/>
-    <hyperlink ref="F36" r:id="rId38" xr:uid="{E263962D-47C1-49F9-A559-36360176D757}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{36F5D6E3-807C-49A7-8D30-80566D9949D4}"/>
+    <hyperlink ref="F20" r:id="rId15" xr:uid="{1F94BCB9-4D2C-4C92-8BF0-A4FC479E37E8}"/>
+    <hyperlink ref="F21" r:id="rId16" xr:uid="{6624F982-B428-4251-AA28-31179DCD8937}"/>
+    <hyperlink ref="F22" r:id="rId17" xr:uid="{58E2A489-0714-4655-8748-622D874EF6F8}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{81E87505-E60E-4515-89EA-9361938F7388}"/>
+    <hyperlink ref="F24" r:id="rId19" xr:uid="{EFDA772F-CC83-4998-A756-1FADE307C734}"/>
+    <hyperlink ref="F25" r:id="rId20" xr:uid="{F81462CE-4E7C-4FAB-8A8E-D305901B6FCF}"/>
+    <hyperlink ref="F28" r:id="rId21" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
+    <hyperlink ref="F29" r:id="rId22" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
+    <hyperlink ref="F30" r:id="rId23" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
+    <hyperlink ref="F31" r:id="rId24" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
+    <hyperlink ref="F32" r:id="rId25" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
+    <hyperlink ref="F11" r:id="rId26" xr:uid="{2459F536-6BF7-4F95-8ED6-65EBE68E0306}"/>
+    <hyperlink ref="G6" r:id="rId27" xr:uid="{A8C35020-1C53-4073-BE6C-0F6933CB1921}"/>
+    <hyperlink ref="G5" r:id="rId28" xr:uid="{A49999D0-0D24-4148-A259-6949303F3996}"/>
+    <hyperlink ref="G7" r:id="rId29" xr:uid="{D90F92BC-9947-4813-8C28-6009DA178051}"/>
+    <hyperlink ref="F26" r:id="rId30" xr:uid="{F3415021-EB69-4CB6-B212-558D2454FF2B}"/>
+    <hyperlink ref="G26" r:id="rId31" xr:uid="{E4EF5DF5-36DD-4B50-AF25-A19F9CE4857A}"/>
+    <hyperlink ref="G30" r:id="rId32" xr:uid="{5A940B12-DD8E-47F3-8C44-FCBBD353757C}"/>
+    <hyperlink ref="F35" r:id="rId33" display="https://www.digikey.com/en/products/detail/io-audio-technologies/IO-C14SP-63/21379594?gad_source=1&amp;gad_campaignid=22396809060&amp;gbraid=0AAAAADrbLlisC8UtMjpExL2rbCWoG3ieR&amp;gclid=Cj0KCQjw0NPGBhCDARIsAGAzpp2VLlJaqhBiZUHDGRJcszbohHTDT2yecNaX-w7lJU8lPrGXw1UWNiwaAsExEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B8089ED-EC5B-48CB-8DCC-6C3B9EB37FA7}"/>
+    <hyperlink ref="F36" r:id="rId34" xr:uid="{E263962D-47C1-49F9-A559-36360176D757}"/>
+    <hyperlink ref="F16" r:id="rId35" xr:uid="{83A27BB2-9C4A-4120-9925-FBAA61079743}"/>
+    <hyperlink ref="F33" r:id="rId36" xr:uid="{1E1A9060-9FD1-40EB-9CB4-035E777CB97F}"/>
+    <hyperlink ref="F17" r:id="rId37" xr:uid="{E3301FAD-92C1-4805-8EF6-30AE4F47746A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A91F73A-B16E-49D3-9A34-C0C5056D6F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C1512D-5036-4667-8CDD-4F443787D064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Total Cost</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>https://www.grainger.com/product/PARKER-Anchor-Coupling-Brass-13Y869?opr=ODOH&amp;analytics=FM:Order%20History</t>
+  </si>
+  <si>
+    <t>pipe through washerers</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Flat-Washer-18-8-22UG44</t>
+  </si>
+  <si>
+    <t>Flat Washer: 18-8, Stainless Steel, 1 in Screw Sz, 1.063 in In Dia, 2 in Out Dia, 18-8, 5 PK</t>
   </si>
 </sst>
 </file>
@@ -820,7 +829,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,6 +1692,27 @@
         <v>121</v>
       </c>
     </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
@@ -1704,7 +1734,7 @@
       </c>
       <c r="E42" s="6">
         <f>SUM(E2:E41)</f>
-        <v>12492.919999999996</v>
+        <v>12507.919999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1746,8 +1776,9 @@
     <hyperlink ref="F16" r:id="rId35" xr:uid="{83A27BB2-9C4A-4120-9925-FBAA61079743}"/>
     <hyperlink ref="F33" r:id="rId36" xr:uid="{1E1A9060-9FD1-40EB-9CB4-035E777CB97F}"/>
     <hyperlink ref="F17" r:id="rId37" xr:uid="{E3301FAD-92C1-4805-8EF6-30AE4F47746A}"/>
+    <hyperlink ref="F38" r:id="rId38" xr:uid="{94087BF9-485B-4DE1-AA9E-568F4259E676}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C1512D-5036-4667-8CDD-4F443787D064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9B30D-8954-4BB0-8B05-9157F297572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Total Cost</t>
   </si>
@@ -420,6 +420,15 @@
   </si>
   <si>
     <t>Flat Washer: 18-8, Stainless Steel, 1 in Screw Sz, 1.063 in In Dia, 2 in Out Dia, 18-8, 5 PK</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Kamoer DIP1500 Peristaltic Pump 24V 1500Ml/Min High Flow Intelligent</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/405898925209?_skw=Kamoer+DIP+1500+Peristaltic+Pumps&amp;itmmeta=01K6KVSWHYJSNG6EA2PQ3BRXEZ&amp;hash=item5e81761499:g:dY8AAOSwmIxoNAUL&amp;itmprp=enc%3AAQAKAAABAFkggFvd1GGDu0w3yXCmi1eeCrwe9QRSEREaUrIDNQcHl2ejBZQd5g5QB4ibtDoehHyRqDUYqWekcvHA4F8PR7E4WfwqcKy%2F6B4jPy%2FdKyfrsZRcKMvBMQJ0wUJKbUB2TtMjOIE2fbYT57uDx6QoXwzDzwwx%2FTiMCwI4NXQ%2Fzk49ElZpUG4mNZ95YLSdIfqhh9EBUlo3RaabFdrQbfIU5mbzxX3Dbw%2FVQ1r1sdAODMwUPvMVsTSBN22hor5VFIwmemSIFqdIGv228Z4PCNOkRGZ5PEv0usP2Il2KKxlkIroaNF4EwcXdTXt4XJ8U9s9J25WHt4%2BWj2ZfYeQipRKgxRI%3D%7Ctkp%3ABFBMlsnn-7Rm</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,6 +500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -828,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +929,7 @@
         <v>9.99</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E39" si="0">C3*D3</f>
         <v>9.99</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1713,13 +1723,26 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
+    <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>299.54000000000002</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>299.54000000000002</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -1734,7 +1757,7 @@
       </c>
       <c r="E42" s="6">
         <f>SUM(E2:E41)</f>
-        <v>12507.919999999996</v>
+        <v>12807.459999999997</v>
       </c>
     </row>
   </sheetData>

--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9B30D-8954-4BB0-8B05-9157F297572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Total Cost</t>
   </si>
@@ -429,6 +429,21 @@
   </si>
   <si>
     <t>https://www.ebay.com/itm/405898925209?_skw=Kamoer+DIP+1500+Peristaltic+Pumps&amp;itmmeta=01K6KVSWHYJSNG6EA2PQ3BRXEZ&amp;hash=item5e81761499:g:dY8AAOSwmIxoNAUL&amp;itmprp=enc%3AAQAKAAABAFkggFvd1GGDu0w3yXCmi1eeCrwe9QRSEREaUrIDNQcHl2ejBZQd5g5QB4ibtDoehHyRqDUYqWekcvHA4F8PR7E4WfwqcKy%2F6B4jPy%2FdKyfrsZRcKMvBMQJ0wUJKbUB2TtMjOIE2fbYT57uDx6QoXwzDzwwx%2FTiMCwI4NXQ%2Fzk49ElZpUG4mNZ95YLSdIfqhh9EBUlo3RaabFdrQbfIU5mbzxX3Dbw%2FVQ1r1sdAODMwUPvMVsTSBN22hor5VFIwmemSIFqdIGv228Z4PCNOkRGZ5PEv0usP2Il2KKxlkIroaNF4EwcXdTXt4XJ8U9s9J25WHt4%2BWj2ZfYeQipRKgxRI%3D%7Ctkp%3ABFBMlsnn-7Rm</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/Compression-Fitting-Adapter-46M551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
+  </si>
+  <si>
+    <t>stright 3/8 compression fitting</t>
+  </si>
+  <si>
+    <t>APPROVED VENDOR Compression Fitting Adapter: 3/8 in OD x 3/8 in Pipe Fitting Size, Brass</t>
+  </si>
+  <si>
+    <t>If you have 1 of these, you could get rid of one of the 3/8 barb fittings from the tee to the pipe</t>
   </si>
 </sst>
 </file>
@@ -476,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -500,7 +515,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -836,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,16 +862,16 @@
     <col min="2" max="2" width="74" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" customWidth="1"/>
-    <col min="7" max="7" width="76" customWidth="1"/>
-    <col min="8" max="8" width="83.5703125" customWidth="1"/>
-    <col min="9" max="9" width="62.5703125" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" customWidth="1"/>
-    <col min="11" max="11" width="51" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" customWidth="1"/>
+    <col min="8" max="8" width="76" customWidth="1"/>
+    <col min="9" max="9" width="83.5703125" customWidth="1"/>
+    <col min="10" max="10" width="62.5703125" customWidth="1"/>
+    <col min="11" max="11" width="55.85546875" customWidth="1"/>
+    <col min="12" max="12" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -874,25 +888,28 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -909,13 +926,14 @@
         <f>C2*D2</f>
         <v>82.2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -929,15 +947,16 @@
         <v>9.99</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E39" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E40" si="0">C3*D3</f>
         <v>9.99</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -954,13 +973,14 @@
         <f t="shared" si="0"/>
         <v>234.98</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -977,15 +997,16 @@
         <f t="shared" si="0"/>
         <v>3427</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1002,15 +1023,16 @@
         <f t="shared" si="0"/>
         <v>3048</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1027,15 +1049,16 @@
         <f t="shared" si="0"/>
         <v>2212</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1052,11 +1075,12 @@
         <f t="shared" si="0"/>
         <v>56.97</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
@@ -1073,13 +1097,14 @@
         <f t="shared" si="0"/>
         <v>90.99</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1096,13 +1121,14 @@
         <f t="shared" si="0"/>
         <v>162.72</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1119,12 +1145,13 @@
         <f t="shared" si="0"/>
         <v>46.16</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1141,12 +1168,13 @@
         <f t="shared" si="0"/>
         <v>14.52</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1163,11 +1191,12 @@
         <f t="shared" si="0"/>
         <v>8.98</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1184,16 +1213,17 @@
         <f t="shared" si="0"/>
         <v>149.78</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -1210,12 +1240,13 @@
         <f>C15*D15</f>
         <v>20.34</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1232,12 +1263,13 @@
         <f t="shared" si="0"/>
         <v>14.16</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>123</v>
       </c>
@@ -1254,12 +1286,13 @@
         <f t="shared" si="0"/>
         <v>47.32</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>111</v>
       </c>
@@ -1276,12 +1309,13 @@
         <f t="shared" si="0"/>
         <v>15.02</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1298,12 +1332,13 @@
         <f t="shared" si="0"/>
         <v>12.46</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -1320,12 +1355,13 @@
         <f t="shared" si="0"/>
         <v>15.13</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -1342,12 +1378,13 @@
         <f t="shared" si="0"/>
         <v>29.3</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -1364,12 +1401,13 @@
         <f t="shared" si="0"/>
         <v>4.09</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -1386,12 +1424,13 @@
         <f t="shared" si="0"/>
         <v>147.52000000000001</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -1408,12 +1447,13 @@
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>110</v>
       </c>
@@ -1430,12 +1470,13 @@
         <f t="shared" si="0"/>
         <v>1.46</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
@@ -1452,14 +1493,15 @@
         <f t="shared" si="0"/>
         <v>2195</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
@@ -1476,12 +1518,13 @@
         <f t="shared" si="0"/>
         <v>99.89</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -1498,12 +1541,13 @@
         <f t="shared" si="0"/>
         <v>69.2</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -1520,12 +1564,13 @@
         <f t="shared" si="0"/>
         <v>145.5</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -1542,14 +1587,15 @@
         <f t="shared" si="0"/>
         <v>41.17</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -1566,12 +1612,13 @@
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="6"/>
+      <c r="G31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
@@ -1588,13 +1635,14 @@
         <f t="shared" si="0"/>
         <v>14.65</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="6"/>
+      <c r="G32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>117</v>
       </c>
@@ -1611,11 +1659,12 @@
         <f>C33*D33</f>
         <v>19.7</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -1632,12 +1681,13 @@
         <f t="shared" si="0"/>
         <v>19.989999999999998</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -1654,12 +1704,13 @@
         <f t="shared" si="0"/>
         <v>1.87</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="6"/>
+      <c r="G35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
@@ -1676,12 +1727,13 @@
         <f t="shared" si="0"/>
         <v>22.56</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="6"/>
+      <c r="G36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
@@ -1698,11 +1750,12 @@
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="6"/>
+      <c r="G37" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>125</v>
       </c>
@@ -1719,11 +1772,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="6"/>
+      <c r="G38" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>128</v>
       </c>
@@ -1740,68 +1794,88 @@
         <f t="shared" si="0"/>
         <v>299.54000000000002</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>13.48</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="6">
         <f>SUM(E2:E41)</f>
-        <v>12807.459999999997</v>
-      </c>
+        <v>12820.939999999997</v>
+      </c>
+      <c r="F42" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{FC65F728-1D6C-4930-9736-CD308A81A115}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{3FA92BB8-87CB-48DF-80DE-ADB99C5948DA}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{2B925F9B-9EBC-46F8-92CC-B2D2295D9E04}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{D7748C9A-D5A9-4091-9C5F-1C78524E3FEB}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{BE59E38F-DA22-4ED1-BF36-E84DE0018044}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{843281D0-FA21-4F36-A652-0F07141A7B84}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{AC5FA834-82E0-404E-B150-C4F68DA38C6A}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{30A401D7-C620-43B9-9D9E-19B3DC7BF553}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{9E7C13BC-99F6-4C00-8247-D65DF4039E02}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{D9870AF0-1C4B-473B-8416-474E754D5E7E}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{7E2805CC-0B04-4DB0-9F38-3741F75A7D1D}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{6AF56708-0BAB-42E8-A3AE-FD431334CF6C}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{F2324ACB-C085-42C4-8640-3C360A4D119E}"/>
-    <hyperlink ref="F18" r:id="rId14" xr:uid="{36F5D6E3-807C-49A7-8D30-80566D9949D4}"/>
-    <hyperlink ref="F20" r:id="rId15" xr:uid="{1F94BCB9-4D2C-4C92-8BF0-A4FC479E37E8}"/>
-    <hyperlink ref="F21" r:id="rId16" xr:uid="{6624F982-B428-4251-AA28-31179DCD8937}"/>
-    <hyperlink ref="F22" r:id="rId17" xr:uid="{58E2A489-0714-4655-8748-622D874EF6F8}"/>
-    <hyperlink ref="F23" r:id="rId18" xr:uid="{81E87505-E60E-4515-89EA-9361938F7388}"/>
-    <hyperlink ref="F24" r:id="rId19" xr:uid="{EFDA772F-CC83-4998-A756-1FADE307C734}"/>
-    <hyperlink ref="F25" r:id="rId20" xr:uid="{F81462CE-4E7C-4FAB-8A8E-D305901B6FCF}"/>
-    <hyperlink ref="F28" r:id="rId21" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
-    <hyperlink ref="F29" r:id="rId22" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
-    <hyperlink ref="F30" r:id="rId23" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
-    <hyperlink ref="F31" r:id="rId24" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
-    <hyperlink ref="F32" r:id="rId25" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
-    <hyperlink ref="F11" r:id="rId26" xr:uid="{2459F536-6BF7-4F95-8ED6-65EBE68E0306}"/>
-    <hyperlink ref="G6" r:id="rId27" xr:uid="{A8C35020-1C53-4073-BE6C-0F6933CB1921}"/>
-    <hyperlink ref="G5" r:id="rId28" xr:uid="{A49999D0-0D24-4148-A259-6949303F3996}"/>
-    <hyperlink ref="G7" r:id="rId29" xr:uid="{D90F92BC-9947-4813-8C28-6009DA178051}"/>
-    <hyperlink ref="F26" r:id="rId30" xr:uid="{F3415021-EB69-4CB6-B212-558D2454FF2B}"/>
-    <hyperlink ref="G26" r:id="rId31" xr:uid="{E4EF5DF5-36DD-4B50-AF25-A19F9CE4857A}"/>
-    <hyperlink ref="G30" r:id="rId32" xr:uid="{5A940B12-DD8E-47F3-8C44-FCBBD353757C}"/>
-    <hyperlink ref="F35" r:id="rId33" display="https://www.digikey.com/en/products/detail/io-audio-technologies/IO-C14SP-63/21379594?gad_source=1&amp;gad_campaignid=22396809060&amp;gbraid=0AAAAADrbLlisC8UtMjpExL2rbCWoG3ieR&amp;gclid=Cj0KCQjw0NPGBhCDARIsAGAzpp2VLlJaqhBiZUHDGRJcszbohHTDT2yecNaX-w7lJU8lPrGXw1UWNiwaAsExEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B8089ED-EC5B-48CB-8DCC-6C3B9EB37FA7}"/>
-    <hyperlink ref="F36" r:id="rId34" xr:uid="{E263962D-47C1-49F9-A559-36360176D757}"/>
-    <hyperlink ref="F16" r:id="rId35" xr:uid="{83A27BB2-9C4A-4120-9925-FBAA61079743}"/>
-    <hyperlink ref="F33" r:id="rId36" xr:uid="{1E1A9060-9FD1-40EB-9CB4-035E777CB97F}"/>
-    <hyperlink ref="F17" r:id="rId37" xr:uid="{E3301FAD-92C1-4805-8EF6-30AE4F47746A}"/>
-    <hyperlink ref="F38" r:id="rId38" xr:uid="{94087BF9-485B-4DE1-AA9E-568F4259E676}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{FC65F728-1D6C-4930-9736-CD308A81A115}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{3FA92BB8-87CB-48DF-80DE-ADB99C5948DA}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{2B925F9B-9EBC-46F8-92CC-B2D2295D9E04}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{D7748C9A-D5A9-4091-9C5F-1C78524E3FEB}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{BE59E38F-DA22-4ED1-BF36-E84DE0018044}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{843281D0-FA21-4F36-A652-0F07141A7B84}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{AC5FA834-82E0-404E-B150-C4F68DA38C6A}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{30A401D7-C620-43B9-9D9E-19B3DC7BF553}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{9E7C13BC-99F6-4C00-8247-D65DF4039E02}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{D9870AF0-1C4B-473B-8416-474E754D5E7E}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{7E2805CC-0B04-4DB0-9F38-3741F75A7D1D}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{6AF56708-0BAB-42E8-A3AE-FD431334CF6C}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{F2324ACB-C085-42C4-8640-3C360A4D119E}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{36F5D6E3-807C-49A7-8D30-80566D9949D4}"/>
+    <hyperlink ref="G20" r:id="rId15" xr:uid="{1F94BCB9-4D2C-4C92-8BF0-A4FC479E37E8}"/>
+    <hyperlink ref="G21" r:id="rId16" xr:uid="{6624F982-B428-4251-AA28-31179DCD8937}"/>
+    <hyperlink ref="G22" r:id="rId17" xr:uid="{58E2A489-0714-4655-8748-622D874EF6F8}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{81E87505-E60E-4515-89EA-9361938F7388}"/>
+    <hyperlink ref="G24" r:id="rId19" xr:uid="{EFDA772F-CC83-4998-A756-1FADE307C734}"/>
+    <hyperlink ref="G25" r:id="rId20" xr:uid="{F81462CE-4E7C-4FAB-8A8E-D305901B6FCF}"/>
+    <hyperlink ref="G28" r:id="rId21" xr:uid="{0B3AB74B-6B3E-4207-9645-7AB7D6617AD3}"/>
+    <hyperlink ref="G29" r:id="rId22" xr:uid="{5CF86D47-7D87-4635-9306-B8490C771687}"/>
+    <hyperlink ref="G30" r:id="rId23" display="https://www.digikey.com/en/products/detail/belden-inc/35618-002500/7041945?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=22518541616&amp;gbraid=0AAAAADrbLljEBpjA6o11517XtnCbKLnsR&amp;gclid=Cj0KCQjwuKnGBhD5ARIsAD19Rsa4nb1dzOV49q-F9Xe7dRzLg9fr09jgomA5Q7py5DmHjVBe4NA0heoaAspGEALw_wcB" xr:uid="{A2DDC80C-6F39-4C44-B776-452B7FA8CAC3}"/>
+    <hyperlink ref="G31" r:id="rId24" xr:uid="{71E7E2F7-3EA3-469E-BDBD-A5E1E2E4F347}"/>
+    <hyperlink ref="G32" r:id="rId25" xr:uid="{F2165E25-79D9-4521-9261-0FF86CB8CEB1}"/>
+    <hyperlink ref="G11" r:id="rId26" xr:uid="{2459F536-6BF7-4F95-8ED6-65EBE68E0306}"/>
+    <hyperlink ref="H6" r:id="rId27" xr:uid="{A8C35020-1C53-4073-BE6C-0F6933CB1921}"/>
+    <hyperlink ref="H5" r:id="rId28" xr:uid="{A49999D0-0D24-4148-A259-6949303F3996}"/>
+    <hyperlink ref="H7" r:id="rId29" xr:uid="{D90F92BC-9947-4813-8C28-6009DA178051}"/>
+    <hyperlink ref="G26" r:id="rId30" xr:uid="{F3415021-EB69-4CB6-B212-558D2454FF2B}"/>
+    <hyperlink ref="H26" r:id="rId31" xr:uid="{E4EF5DF5-36DD-4B50-AF25-A19F9CE4857A}"/>
+    <hyperlink ref="H30" r:id="rId32" xr:uid="{5A940B12-DD8E-47F3-8C44-FCBBD353757C}"/>
+    <hyperlink ref="G35" r:id="rId33" display="https://www.digikey.com/en/products/detail/io-audio-technologies/IO-C14SP-63/21379594?gad_source=1&amp;gad_campaignid=22396809060&amp;gbraid=0AAAAADrbLlisC8UtMjpExL2rbCWoG3ieR&amp;gclid=Cj0KCQjw0NPGBhCDARIsAGAzpp2VLlJaqhBiZUHDGRJcszbohHTDT2yecNaX-w7lJU8lPrGXw1UWNiwaAsExEALw_wcB&amp;gclsrc=aw.ds" xr:uid="{4B8089ED-EC5B-48CB-8DCC-6C3B9EB37FA7}"/>
+    <hyperlink ref="G36" r:id="rId34" xr:uid="{E263962D-47C1-49F9-A559-36360176D757}"/>
+    <hyperlink ref="G16" r:id="rId35" xr:uid="{83A27BB2-9C4A-4120-9925-FBAA61079743}"/>
+    <hyperlink ref="G33" r:id="rId36" xr:uid="{1E1A9060-9FD1-40EB-9CB4-035E777CB97F}"/>
+    <hyperlink ref="G17" r:id="rId37" xr:uid="{E3301FAD-92C1-4805-8EF6-30AE4F47746A}"/>
+    <hyperlink ref="G38" r:id="rId38" xr:uid="{94087BF9-485B-4DE1-AA9E-568F4259E676}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{6D79D5B6-03CD-4FCF-94AD-8DF566E11950}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34105aa9bb97034c/Documents/GitHub/Smart-Pack-for-Advanced-Research-and-Control/variations/Camden/V0.2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EEB18D2-8E1A-440C-9AFF-2DD297FC25F4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="33810" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Total Cost</t>
   </si>
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>If you have 1 of these, you could get rid of one of the 3/8 barb fittings from the tee to the pipe</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/MORSE-Hole-Saw-5-8-in-Saw-Dia-54HP10</t>
+  </si>
+  <si>
+    <t>Hole Saw 5/8ths</t>
+  </si>
+  <si>
+    <t>MORSE Hole Saw: 5/8 in Saw Dia., 5/6 Teeth per Inch, 1 7/8 in Max. Cutting Dp, 1/2"-20 Thread Size</t>
   </si>
 </sst>
 </file>
@@ -850,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,15 +1832,39 @@
         <v>131</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>23.73</v>
+      </c>
+      <c r="E41">
+        <v>23.73</v>
+      </c>
+    </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="6">
-        <f>SUM(E2:E41)</f>
-        <v>12820.939999999997</v>
-      </c>
-      <c r="F42" s="6"/>
+      <c r="E43" s="6">
+        <f>SUM(E3:E42)</f>
+        <v>12762.469999999996</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1874,8 +1907,9 @@
     <hyperlink ref="G17" r:id="rId37" xr:uid="{E3301FAD-92C1-4805-8EF6-30AE4F47746A}"/>
     <hyperlink ref="G38" r:id="rId38" xr:uid="{94087BF9-485B-4DE1-AA9E-568F4259E676}"/>
     <hyperlink ref="G40" r:id="rId39" xr:uid="{6D79D5B6-03CD-4FCF-94AD-8DF566E11950}"/>
+    <hyperlink ref="G42" r:id="rId40" xr:uid="{4D4B67EB-FB71-4CF3-8E3E-A7B9C0AA78D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34105aa9bb97034c/Documents/GitHub/Smart-Pack-for-Advanced-Research-and-Control/variations/Camden/V0.2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EEB18D2-8E1A-440C-9AFF-2DD297FC25F4}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D806BE8B-2AA5-4D82-91E9-8769634FF3E1}"/>
   <bookViews>
-    <workbookView xWindow="33810" yWindow="3600" windowWidth="21600" windowHeight="11295" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -446,13 +446,13 @@
     <t>If you have 1 of these, you could get rid of one of the 3/8 barb fittings from the tee to the pipe</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/MORSE-Hole-Saw-5-8-in-Saw-Dia-54HP10</t>
-  </si>
-  <si>
-    <t>Hole Saw 5/8ths</t>
-  </si>
-  <si>
-    <t>MORSE Hole Saw: 5/8 in Saw Dia., 5/6 Teeth per Inch, 1 7/8 in Max. Cutting Dp, 1/2"-20 Thread Size</t>
+    <t xml:space="preserve"> https://www.grainger.com/product/MILWAUKEE-Hole-Saw-1-in-Saw-Dia-856EV8</t>
+  </si>
+  <si>
+    <t>1 inch Hole Saw</t>
+  </si>
+  <si>
+    <t>MILWAUKEE Hole Saw: 1 in Saw Dia., 3.5 Teeth per Inch, 1 5/8 in Max. Cutting Dp, Bi-Metal</t>
   </si>
 </sst>
 </file>
@@ -540,6 +540,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,19 +1847,20 @@
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>23.73</v>
+        <v>15.89</v>
       </c>
       <c r="E41">
-        <v>23.73</v>
+        <v>15.89</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="7" t="s">
@@ -1863,7 +1868,7 @@
       </c>
       <c r="E43" s="6">
         <f>SUM(E3:E42)</f>
-        <v>12762.469999999996</v>
+        <v>12754.629999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1912,7 @@
     <hyperlink ref="G17" r:id="rId37" xr:uid="{E3301FAD-92C1-4805-8EF6-30AE4F47746A}"/>
     <hyperlink ref="G38" r:id="rId38" xr:uid="{94087BF9-485B-4DE1-AA9E-568F4259E676}"/>
     <hyperlink ref="G40" r:id="rId39" xr:uid="{6D79D5B6-03CD-4FCF-94AD-8DF566E11950}"/>
-    <hyperlink ref="G42" r:id="rId40" xr:uid="{4D4B67EB-FB71-4CF3-8E3E-A7B9C0AA78D5}"/>
+    <hyperlink ref="G41" r:id="rId40" display="https://nam02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.grainger.com%2Fproduct%2FMILWAUKEE-Hole-Saw-1-in-Saw-Dia-856EV8&amp;data=05%7C02%7CCKB11%40email.sc.edu%7C9a1df447a7c2434dc85d08de157fc0b4%7C4b2a4b19d135420e8bb2b1cd238998cc%7C0%7C0%7C638971835598967940%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=EAjn5hwuV%2BewMqz9WyyZN%2Fqwh4VRByeEbQ3Le73uExc%3D&amp;reserved=0" xr:uid="{A9796287-2762-473D-888E-E0F37F2D5222}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId41"/>

--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34105aa9bb97034c/Documents/GitHub/Smart-Pack-for-Advanced-Research-and-Control/variations/Camden/V0.2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D806BE8B-2AA5-4D82-91E9-8769634FF3E1}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{844B9181-3C47-49EE-A45A-D872B52B78B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="28395" yWindow="1620" windowWidth="21600" windowHeight="11295" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Total Cost</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>MILWAUKEE Hole Saw: 1 in Saw Dia., 3.5 Teeth per Inch, 1 5/8 in Max. Cutting Dp, Bi-Metal</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/SPEC-Extension-Spring-Crossover-782AR3</t>
+  </si>
+  <si>
+    <t>Extension Spring</t>
+  </si>
+  <si>
+    <t>Extension Spring: Crossover Center Loop End, Music Wire, 76.9 mm Free Lg, 1 mm Wire Dia, 2 PK</t>
   </si>
 </sst>
 </file>
@@ -540,10 +549,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -865,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,10 +1862,25 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>22.08</v>
+      </c>
+      <c r="E42" s="6">
+        <v>44.16</v>
+      </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="7" t="s">
@@ -1868,7 +1888,7 @@
       </c>
       <c r="E43" s="6">
         <f>SUM(E3:E42)</f>
-        <v>12754.629999999996</v>
+        <v>12798.789999999995</v>
       </c>
     </row>
   </sheetData>

--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34105aa9bb97034c/Documents/GitHub/Smart-Pack-for-Advanced-Research-and-Control/variations/Camden/V0.2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{844B9181-3C47-49EE-A45A-D872B52B78B4}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16AAEBFC-10A0-4700-AFF5-8E8856FF7ABC}"/>
   <bookViews>
-    <workbookView xWindow="28395" yWindow="1620" windowWidth="21600" windowHeight="11295" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView minimized="1" xWindow="990" yWindow="1995" windowWidth="21600" windowHeight="11295" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -455,13 +455,13 @@
     <t>MILWAUKEE Hole Saw: 1 in Saw Dia., 3.5 Teeth per Inch, 1 5/8 in Max. Cutting Dp, Bi-Metal</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/SPEC-Extension-Spring-Crossover-782AR3</t>
-  </si>
-  <si>
     <t>Extension Spring</t>
   </si>
   <si>
-    <t>Extension Spring: Crossover Center Loop End, Music Wire, 76.9 mm Free Lg, 1 mm Wire Dia, 2 PK</t>
+    <t>https://www.grainger.com/product/SPEC-Extension-Spring-302-Stainless-828EK0</t>
+  </si>
+  <si>
+    <t>Extension Spring: 302 Stainless Steel, 56.8 mm Free Lg, 1.8 mm Wire Dia, 20 mm O.D.</t>
   </si>
 </sst>
 </file>
@@ -549,6 +549,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,23 +1867,23 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" s="7">
-        <v>22.08</v>
+        <v>13.68</v>
       </c>
       <c r="E42" s="6">
-        <v>44.16</v>
+        <v>54.72</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,7 +1892,7 @@
       </c>
       <c r="E43" s="6">
         <f>SUM(E3:E42)</f>
-        <v>12798.789999999995</v>
+        <v>12809.349999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1933,8 +1937,9 @@
     <hyperlink ref="G38" r:id="rId38" xr:uid="{94087BF9-485B-4DE1-AA9E-568F4259E676}"/>
     <hyperlink ref="G40" r:id="rId39" xr:uid="{6D79D5B6-03CD-4FCF-94AD-8DF566E11950}"/>
     <hyperlink ref="G41" r:id="rId40" display="https://nam02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.grainger.com%2Fproduct%2FMILWAUKEE-Hole-Saw-1-in-Saw-Dia-856EV8&amp;data=05%7C02%7CCKB11%40email.sc.edu%7C9a1df447a7c2434dc85d08de157fc0b4%7C4b2a4b19d135420e8bb2b1cd238998cc%7C0%7C0%7C638971835598967940%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=EAjn5hwuV%2BewMqz9WyyZN%2Fqwh4VRByeEbQ3Le73uExc%3D&amp;reserved=0" xr:uid="{A9796287-2762-473D-888E-E0F37F2D5222}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{C0ED065D-B925-427C-8F38-A0272152AF6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34105aa9bb97034c/Documents/GitHub/Smart-Pack-for-Advanced-Research-and-Control/variations/Camden/V0.2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16AAEBFC-10A0-4700-AFF5-8E8856FF7ABC}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D729DF37-B74E-4908-9686-8DFEBFB61CE6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="990" yWindow="1995" windowWidth="21600" windowHeight="11295" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Total Cost</t>
   </si>
@@ -458,10 +458,13 @@
     <t>Extension Spring</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/SPEC-Extension-Spring-302-Stainless-828EK0</t>
-  </si>
-  <si>
-    <t>Extension Spring: 302 Stainless Steel, 56.8 mm Free Lg, 1.8 mm Wire Dia, 20 mm O.D.</t>
+    <t>https://www.fastenal.com/product/details/923785687</t>
+  </si>
+  <si>
+    <t>0.240" Od X 0.037" Wire X 1-1/2" L Passivated Finish 302 Stainless Steel Hook End Extension Spring 5Ct</t>
+  </si>
+  <si>
+    <t>the total cost is actually the price of 5 since that is the lowest it is sold at</t>
   </si>
 </sst>
 </file>
@@ -874,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,12 +1879,14 @@
         <v>4</v>
       </c>
       <c r="D42" s="7">
-        <v>13.68</v>
+        <v>13.1</v>
       </c>
       <c r="E42" s="6">
-        <v>54.72</v>
-      </c>
-      <c r="F42" s="6"/>
+        <v>65.52</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>140</v>
       </c>
@@ -1892,7 +1897,7 @@
       </c>
       <c r="E43" s="6">
         <f>SUM(E3:E42)</f>
-        <v>12809.349999999995</v>
+        <v>12820.149999999996</v>
       </c>
     </row>
   </sheetData>

--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34105aa9bb97034c/Documents/GitHub/Smart-Pack-for-Advanced-Research-and-Control/variations/Camden/V0.2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D729DF37-B74E-4908-9686-8DFEBFB61CE6}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E94887-1109-4BC2-84F2-F17F176F1625}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="9285" yWindow="795" windowWidth="21600" windowHeight="11295" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Total Cost</t>
   </si>
@@ -458,13 +458,16 @@
     <t>Extension Spring</t>
   </si>
   <si>
-    <t>https://www.fastenal.com/product/details/923785687</t>
-  </si>
-  <si>
-    <t>0.240" Od X 0.037" Wire X 1-1/2" L Passivated Finish 302 Stainless Steel Hook End Extension Spring 5Ct</t>
-  </si>
-  <si>
-    <t>the total cost is actually the price of 5 since that is the lowest it is sold at</t>
+    <t xml:space="preserve"> https://www.fastenal.com/product/details/923785687 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.mcmaster.com/9432K48/</t>
+  </si>
+  <si>
+    <t>Music-Wire Steel Extension Springs with Hook Ends</t>
+  </si>
+  <si>
+    <t>the total cost is actually the price of 6 since that is the lowest it is sold at</t>
   </si>
 </sst>
 </file>
@@ -877,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,21 +1876,24 @@
         <v>139</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
       </c>
       <c r="D42" s="7">
-        <v>13.1</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E42" s="6">
-        <v>65.52</v>
+        <v>12.41</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1897,7 +1903,7 @@
       </c>
       <c r="E43" s="6">
         <f>SUM(E3:E42)</f>
-        <v>12820.149999999996</v>
+        <v>12767.039999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +1948,7 @@
     <hyperlink ref="G38" r:id="rId38" xr:uid="{94087BF9-485B-4DE1-AA9E-568F4259E676}"/>
     <hyperlink ref="G40" r:id="rId39" xr:uid="{6D79D5B6-03CD-4FCF-94AD-8DF566E11950}"/>
     <hyperlink ref="G41" r:id="rId40" display="https://nam02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.grainger.com%2Fproduct%2FMILWAUKEE-Hole-Saw-1-in-Saw-Dia-856EV8&amp;data=05%7C02%7CCKB11%40email.sc.edu%7C9a1df447a7c2434dc85d08de157fc0b4%7C4b2a4b19d135420e8bb2b1cd238998cc%7C0%7C0%7C638971835598967940%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=EAjn5hwuV%2BewMqz9WyyZN%2Fqwh4VRByeEbQ3Le73uExc%3D&amp;reserved=0" xr:uid="{A9796287-2762-473D-888E-E0F37F2D5222}"/>
-    <hyperlink ref="G42" r:id="rId41" xr:uid="{C0ED065D-B925-427C-8F38-A0272152AF6E}"/>
+    <hyperlink ref="G42" r:id="rId41" display="https://www.fastenal.com/product/details/923785687" xr:uid="{C0ED065D-B925-427C-8F38-A0272152AF6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId42"/>

--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34105aa9bb97034c/Documents/GitHub/Smart-Pack-for-Advanced-Research-and-Control/variations/Camden/V0.2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{C55CFE31-0E94-47CD-986F-B9BE33B0F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E94887-1109-4BC2-84F2-F17F176F1625}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F0CF9C-CFC1-46C9-9C05-D9DC7EC5EA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="795" windowWidth="21600" windowHeight="11295" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>Extension Spring</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://www.fastenal.com/product/details/923785687 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://www.mcmaster.com/9432K48/</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>the total cost is actually the price of 6 since that is the lowest it is sold at</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/product/details/923785687</t>
   </si>
 </sst>
 </file>
@@ -555,10 +555,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,7 +1872,7 @@
         <v>139</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="2">
         <v>4</v>
@@ -1888,13 +1884,13 @@
         <v>12.41</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1948,7 +1944,7 @@
     <hyperlink ref="G38" r:id="rId38" xr:uid="{94087BF9-485B-4DE1-AA9E-568F4259E676}"/>
     <hyperlink ref="G40" r:id="rId39" xr:uid="{6D79D5B6-03CD-4FCF-94AD-8DF566E11950}"/>
     <hyperlink ref="G41" r:id="rId40" display="https://nam02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.grainger.com%2Fproduct%2FMILWAUKEE-Hole-Saw-1-in-Saw-Dia-856EV8&amp;data=05%7C02%7CCKB11%40email.sc.edu%7C9a1df447a7c2434dc85d08de157fc0b4%7C4b2a4b19d135420e8bb2b1cd238998cc%7C0%7C0%7C638971835598967940%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=EAjn5hwuV%2BewMqz9WyyZN%2Fqwh4VRByeEbQ3Le73uExc%3D&amp;reserved=0" xr:uid="{A9796287-2762-473D-888E-E0F37F2D5222}"/>
-    <hyperlink ref="G42" r:id="rId41" display="https://www.fastenal.com/product/details/923785687" xr:uid="{C0ED065D-B925-427C-8F38-A0272152AF6E}"/>
+    <hyperlink ref="H42" r:id="rId41" xr:uid="{B771626B-BE96-4E86-B8E7-5F4D421B11CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId42"/>

--- a/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
+++ b/variations/Camden/V0.2.1/BOM-SPARC-Camden-V0.2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Smart-Pack-for-Advanced-Research-and-Control\variations\Camden\V0.2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34105aa9bb97034c/Documents/GitHub/Smart-Pack-for-Advanced-Research-and-Control/variations/Camden/V0.2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F0CF9C-CFC1-46C9-9C05-D9DC7EC5EA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B4F0CF9C-CFC1-46C9-9C05-D9DC7EC5EA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1849748-C6DB-4E62-98CE-49CCDF7DDDB2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FDAE7DA4-9528-4FC7-A320-70DA50473DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="bill_of_materials" sheetId="1" r:id="rId1"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D3A36C-E8CE-4E50-A172-E48E2F9A45A8}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,8 +1945,9 @@
     <hyperlink ref="G40" r:id="rId39" xr:uid="{6D79D5B6-03CD-4FCF-94AD-8DF566E11950}"/>
     <hyperlink ref="G41" r:id="rId40" display="https://nam02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.grainger.com%2Fproduct%2FMILWAUKEE-Hole-Saw-1-in-Saw-Dia-856EV8&amp;data=05%7C02%7CCKB11%40email.sc.edu%7C9a1df447a7c2434dc85d08de157fc0b4%7C4b2a4b19d135420e8bb2b1cd238998cc%7C0%7C0%7C638971835598967940%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=EAjn5hwuV%2BewMqz9WyyZN%2Fqwh4VRByeEbQ3Le73uExc%3D&amp;reserved=0" xr:uid="{A9796287-2762-473D-888E-E0F37F2D5222}"/>
     <hyperlink ref="H42" r:id="rId41" xr:uid="{B771626B-BE96-4E86-B8E7-5F4D421B11CC}"/>
+    <hyperlink ref="G27" r:id="rId42" xr:uid="{9087F97E-6A29-4916-9C63-C220AC3B6655}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>